--- a/data/trans_orig/P36BPD11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0319F6-702F-4E02-9C12-326E601B9FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EAC5C4-F25D-4AE0-B3CC-668C74F0DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B39B23F9-4282-4FA2-B78F-BEE69B6E3695}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E10FF44-C8DF-4066-B6B1-04D449934369}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>32,36%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>39,35%</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
@@ -104,145 +104,145 @@
     <t>45,01%</t>
   </si>
   <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
     <t>36,89%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
+    <t>48,17%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -251,79 +251,82 @@
     <t>43,6%</t>
   </si>
   <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
     <t>38,93%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -332,10 +335,10 @@
     <t>50,6%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
   </si>
   <si>
     <t>49,9%</t>
@@ -344,43 +347,43 @@
     <t>46,48%</t>
   </si>
   <si>
-    <t>53,27%</t>
+    <t>53,17%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>16,36%</t>
@@ -389,25 +392,22 @@
     <t>12,67%</t>
   </si>
   <si>
-    <t>19,55%</t>
+    <t>19,76%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -416,79 +416,82 @@
     <t>44,91%</t>
   </si>
   <si>
-    <t>48,64%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>49,53%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>35,03%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -497,10 +500,10 @@
     <t>52,96%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>58,49%</t>
@@ -509,142 +512,145 @@
     <t>52,65%</t>
   </si>
   <si>
-    <t>71,5%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>15,25%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>18,99%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1059,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87717CB3-18BE-4846-88DC-29862698AB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9F16D2-C817-4EFF-94A2-4F22F9D02516}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1661,13 +1667,13 @@
         <v>225964</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
@@ -1676,13 +1682,13 @@
         <v>442294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,13 +1703,13 @@
         <v>97966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1712,13 +1718,13 @@
         <v>78771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -1727,13 +1733,13 @@
         <v>176737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1795,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,13 +1807,13 @@
         <v>366343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>575</v>
@@ -1816,13 +1822,13 @@
         <v>372667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>900</v>
@@ -1831,13 +1837,13 @@
         <v>739010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1858,13 @@
         <v>239175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
@@ -1867,13 +1873,13 @@
         <v>256591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>613</v>
@@ -1882,13 +1888,13 @@
         <v>495766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1909,13 @@
         <v>118473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>173</v>
@@ -1918,13 +1924,13 @@
         <v>117596</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -1933,7 +1939,7 @@
         <v>236068</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>122</v>
@@ -2010,10 +2016,10 @@
         <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>553</v>
@@ -2022,13 +2028,13 @@
         <v>322691</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -2037,13 +2043,13 @@
         <v>591640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2064,13 @@
         <v>209807</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>320</v>
@@ -2073,13 +2079,13 @@
         <v>195343</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -2088,13 +2094,13 @@
         <v>405150</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2115,13 @@
         <v>120163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -2124,13 +2130,13 @@
         <v>77608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -2139,13 +2145,13 @@
         <v>197771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,7 +2207,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2210,16 +2216,16 @@
         <v>557</v>
       </c>
       <c r="D24" s="7">
-        <v>368746</v>
+        <v>368745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>939</v>
@@ -2228,13 +2234,13 @@
         <v>599765</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>1496</v>
@@ -2243,13 +2249,13 @@
         <v>968510</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2270,13 @@
         <v>236663</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>543</v>
@@ -2279,13 +2285,13 @@
         <v>306565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>875</v>
@@ -2294,13 +2300,13 @@
         <v>543228</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2321,13 @@
         <v>90824</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>223</v>
@@ -2330,13 +2336,13 @@
         <v>119108</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>360</v>
@@ -2345,13 +2351,13 @@
         <v>209932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2369,7 @@
         <v>1026</v>
       </c>
       <c r="D27" s="7">
-        <v>696233</v>
+        <v>696232</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2419,13 +2425,13 @@
         <v>1551381</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>2746</v>
@@ -2434,13 +2440,13 @@
         <v>1898339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>4369</v>
@@ -2449,13 +2455,13 @@
         <v>3449720</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2476,13 @@
         <v>1246750</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>1846</v>
@@ -2485,13 +2491,13 @@
         <v>1356389</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>3027</v>
@@ -2500,13 +2506,13 @@
         <v>2603139</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2527,13 @@
         <v>584338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>762</v>
@@ -2536,13 +2542,13 @@
         <v>547178</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>1330</v>
@@ -2551,13 +2557,13 @@
         <v>1131516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2619,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EAC5C4-F25D-4AE0-B3CC-668C74F0DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0404FD94-7E5C-4F33-8449-EDEFC03DD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E10FF44-C8DF-4066-B6B1-04D449934369}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{382B1275-88C9-4BFA-BA58-2204CC28DC84}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="233">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -65,592 +65,673 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>Uno o dos a la semana</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>Uno o dos a la semana</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1065,8 +1146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9F16D2-C817-4EFF-94A2-4F22F9D02516}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF0988-F536-4C15-A170-B87DE7BDC1FC}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1186,7 +1267,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>122201</v>
+        <v>133067</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1201,7 +1282,7 @@
         <v>82</v>
       </c>
       <c r="I4" s="7">
-        <v>139672</v>
+        <v>124786</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1216,7 +1297,7 @@
         <v>140</v>
       </c>
       <c r="N4" s="7">
-        <v>261873</v>
+        <v>257853</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1237,7 +1318,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>170004</v>
+        <v>178526</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1252,7 +1333,7 @@
         <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>158800</v>
+        <v>135973</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1267,7 +1348,7 @@
         <v>169</v>
       </c>
       <c r="N5" s="7">
-        <v>328804</v>
+        <v>314499</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1288,7 +1369,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>85474</v>
+        <v>88394</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1303,7 +1384,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>56485</v>
+        <v>52441</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1318,7 +1399,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>141959</v>
+        <v>140835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1339,7 +1420,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1354,7 +1435,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1369,7 +1450,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1392,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="7">
-        <v>182188</v>
+        <v>184467</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1407,7 +1488,7 @@
         <v>190</v>
       </c>
       <c r="I8" s="7">
-        <v>187840</v>
+        <v>171949</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1422,7 +1503,7 @@
         <v>325</v>
       </c>
       <c r="N8" s="7">
-        <v>370028</v>
+        <v>356415</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1443,7 +1524,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>174770</v>
+        <v>168003</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1458,7 +1539,7 @@
         <v>179</v>
       </c>
       <c r="I9" s="7">
-        <v>213126</v>
+        <v>249015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1473,7 +1554,7 @@
         <v>297</v>
       </c>
       <c r="N9" s="7">
-        <v>387896</v>
+        <v>417019</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1494,7 +1575,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>71438</v>
+        <v>71077</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1509,7 +1590,7 @@
         <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>97611</v>
+        <v>90540</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1518,22 +1599,22 @@
         <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
       </c>
       <c r="N10" s="7">
-        <v>169049</v>
+        <v>161617</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1626,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1560,7 +1641,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1575,7 +1656,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1589,7 +1670,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1598,46 +1679,46 @@
         <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>242955</v>
+        <v>236657</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>407</v>
       </c>
       <c r="I12" s="7">
-        <v>275704</v>
+        <v>257325</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>648</v>
       </c>
       <c r="N12" s="7">
-        <v>518659</v>
+        <v>493981</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,46 +1730,46 @@
         <v>206</v>
       </c>
       <c r="D13" s="7">
-        <v>216331</v>
+        <v>204097</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>320</v>
       </c>
       <c r="I13" s="7">
-        <v>225964</v>
+        <v>208834</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
       </c>
       <c r="N13" s="7">
-        <v>442294</v>
+        <v>412931</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,46 +1781,46 @@
         <v>99</v>
       </c>
       <c r="D14" s="7">
-        <v>97966</v>
+        <v>95584</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
       </c>
       <c r="I14" s="7">
-        <v>78771</v>
+        <v>73545</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
       </c>
       <c r="N14" s="7">
-        <v>176737</v>
+        <v>169129</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1832,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1766,7 +1847,7 @@
         <v>842</v>
       </c>
       <c r="I15" s="7">
-        <v>580439</v>
+        <v>539703</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1781,7 +1862,7 @@
         <v>1388</v>
       </c>
       <c r="N15" s="7">
-        <v>1137691</v>
+        <v>1076041</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1795,7 +1876,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1804,46 +1885,46 @@
         <v>325</v>
       </c>
       <c r="D16" s="7">
-        <v>366343</v>
+        <v>551119</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>575</v>
       </c>
       <c r="I16" s="7">
-        <v>372667</v>
+        <v>345016</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>900</v>
       </c>
       <c r="N16" s="7">
-        <v>739010</v>
+        <v>896136</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,46 +1936,46 @@
         <v>221</v>
       </c>
       <c r="D17" s="7">
-        <v>239175</v>
+        <v>222904</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
       </c>
       <c r="I17" s="7">
-        <v>256591</v>
+        <v>234364</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>613</v>
       </c>
       <c r="N17" s="7">
-        <v>495766</v>
+        <v>457268</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,40 +1987,40 @@
         <v>119</v>
       </c>
       <c r="D18" s="7">
-        <v>118473</v>
+        <v>113763</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>173</v>
       </c>
       <c r="I18" s="7">
-        <v>117596</v>
+        <v>133118</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
       </c>
       <c r="N18" s="7">
-        <v>236068</v>
+        <v>246881</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>122</v>
@@ -1957,7 +2038,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1972,7 +2053,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1987,7 +2068,7 @@
         <v>1805</v>
       </c>
       <c r="N19" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2010,7 +2091,7 @@
         <v>307</v>
       </c>
       <c r="D20" s="7">
-        <v>268950</v>
+        <v>254447</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>125</v>
@@ -2025,7 +2106,7 @@
         <v>553</v>
       </c>
       <c r="I20" s="7">
-        <v>322691</v>
+        <v>297905</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -2040,7 +2121,7 @@
         <v>860</v>
       </c>
       <c r="N20" s="7">
-        <v>591640</v>
+        <v>552352</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>131</v>
@@ -2061,7 +2142,7 @@
         <v>227</v>
       </c>
       <c r="D21" s="7">
-        <v>209807</v>
+        <v>192851</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -2076,7 +2157,7 @@
         <v>320</v>
       </c>
       <c r="I21" s="7">
-        <v>195343</v>
+        <v>177423</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
@@ -2091,7 +2172,7 @@
         <v>547</v>
       </c>
       <c r="N21" s="7">
-        <v>405150</v>
+        <v>370274</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>140</v>
@@ -2112,7 +2193,7 @@
         <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>120163</v>
+        <v>112742</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -2127,7 +2208,7 @@
         <v>127</v>
       </c>
       <c r="I22" s="7">
-        <v>77608</v>
+        <v>71270</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>146</v>
@@ -2142,7 +2223,7 @@
         <v>254</v>
       </c>
       <c r="N22" s="7">
-        <v>197771</v>
+        <v>184012</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>149</v>
@@ -2163,7 +2244,7 @@
         <v>661</v>
       </c>
       <c r="D23" s="7">
-        <v>598920</v>
+        <v>560040</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2178,7 +2259,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595641</v>
+        <v>546598</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2193,7 +2274,7 @@
         <v>1661</v>
       </c>
       <c r="N23" s="7">
-        <v>1194560</v>
+        <v>1106638</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2213,10 +2294,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>557</v>
+        <v>302</v>
       </c>
       <c r="D24" s="7">
-        <v>368745</v>
+        <v>192321</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>153</v>
@@ -2228,10 +2309,10 @@
         <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>939</v>
+        <v>445</v>
       </c>
       <c r="I24" s="7">
-        <v>599765</v>
+        <v>419492</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>156</v>
@@ -2243,10 +2324,10 @@
         <v>158</v>
       </c>
       <c r="M24" s="7">
-        <v>1496</v>
+        <v>747</v>
       </c>
       <c r="N24" s="7">
-        <v>968510</v>
+        <v>611813</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>159</v>
@@ -2264,10 +2345,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7">
-        <v>236663</v>
+        <v>126948</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>162</v>
@@ -2276,37 +2357,37 @@
         <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7">
+        <v>265</v>
+      </c>
+      <c r="I25" s="7">
+        <v>133958</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="7">
-        <v>543</v>
-      </c>
-      <c r="I25" s="7">
-        <v>306565</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>456</v>
+      </c>
+      <c r="N25" s="7">
+        <v>260906</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M25" s="7">
-        <v>875</v>
-      </c>
-      <c r="N25" s="7">
-        <v>543228</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,49 +2396,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D26" s="7">
-        <v>90824</v>
+        <v>47438</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>116</v>
+      </c>
+      <c r="I26" s="7">
+        <v>54531</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="7">
-        <v>223</v>
-      </c>
-      <c r="I26" s="7">
-        <v>119108</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>191</v>
+      </c>
+      <c r="N26" s="7">
+        <v>101969</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="7">
-        <v>360</v>
-      </c>
-      <c r="N26" s="7">
-        <v>209932</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,10 +2447,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>568</v>
       </c>
       <c r="D27" s="7">
-        <v>696232</v>
+        <v>366707</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2381,10 +2462,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025438</v>
+        <v>607981</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2396,10 +2477,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1721670</v>
+        <v>974688</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2413,16 +2494,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1623</v>
+        <v>255</v>
       </c>
       <c r="D28" s="7">
-        <v>1551381</v>
+        <v>155940</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>180</v>
@@ -2434,10 +2515,10 @@
         <v>182</v>
       </c>
       <c r="H28" s="7">
-        <v>2746</v>
+        <v>494</v>
       </c>
       <c r="I28" s="7">
-        <v>1898339</v>
+        <v>231597</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>183</v>
@@ -2449,10 +2530,10 @@
         <v>185</v>
       </c>
       <c r="M28" s="7">
-        <v>4369</v>
+        <v>749</v>
       </c>
       <c r="N28" s="7">
-        <v>3449720</v>
+        <v>387537</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>186</v>
@@ -2470,10 +2551,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1181</v>
+        <v>141</v>
       </c>
       <c r="D29" s="7">
-        <v>1246750</v>
+        <v>89192</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>189</v>
@@ -2485,10 +2566,10 @@
         <v>191</v>
       </c>
       <c r="H29" s="7">
-        <v>1846</v>
+        <v>278</v>
       </c>
       <c r="I29" s="7">
-        <v>1356389</v>
+        <v>139991</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>192</v>
@@ -2500,10 +2581,10 @@
         <v>194</v>
       </c>
       <c r="M29" s="7">
-        <v>3027</v>
+        <v>419</v>
       </c>
       <c r="N29" s="7">
-        <v>2603139</v>
+        <v>229183</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>195</v>
@@ -2521,10 +2602,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>568</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7">
-        <v>584338</v>
+        <v>37627</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>198</v>
@@ -2536,34 +2617,34 @@
         <v>200</v>
       </c>
       <c r="H30" s="7">
-        <v>762</v>
+        <v>107</v>
       </c>
       <c r="I30" s="7">
-        <v>547178</v>
+        <v>53495</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M30" s="7">
-        <v>1330</v>
+        <v>169</v>
       </c>
       <c r="N30" s="7">
-        <v>1131516</v>
+        <v>91122</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,63 +2653,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>879</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425083</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707842</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1623</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1708017</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2746</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1848070</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4369</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3556088</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1181</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1182522</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1846</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1279558</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3027</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2462079</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>568</v>
+      </c>
+      <c r="D34" s="7">
+        <v>566626</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" s="7">
+        <v>762</v>
+      </c>
+      <c r="I34" s="7">
+        <v>528940</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1330</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1095566</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3372</v>
       </c>
-      <c r="D31" s="7">
-        <v>3382469</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3457165</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5354</v>
       </c>
-      <c r="I31" s="7">
-        <v>3801906</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3656568</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8726</v>
       </c>
-      <c r="N31" s="7">
-        <v>7184375</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>205</v>
+      <c r="N35" s="7">
+        <v>7113733</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
